--- a/D_Olink_new.xlsx
+++ b/D_Olink_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nis2034\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdi4011/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5583917F-9536-43C3-948F-7006627EAA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC18658-9738-E045-9AD7-C0106260BD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="370">
   <si>
     <t/>
   </si>
@@ -30,156 +30,6 @@
     <t>C001-P1</t>
   </si>
   <si>
-    <t>C002-P1</t>
-  </si>
-  <si>
-    <t>C003-P1</t>
-  </si>
-  <si>
-    <t>C004-P1</t>
-  </si>
-  <si>
-    <t>C005-P1</t>
-  </si>
-  <si>
-    <t>C006-P1</t>
-  </si>
-  <si>
-    <t>C008-P1</t>
-  </si>
-  <si>
-    <t>C009-P1</t>
-  </si>
-  <si>
-    <t>C010-P1</t>
-  </si>
-  <si>
-    <t>C011-P1</t>
-  </si>
-  <si>
-    <t>C012-P1</t>
-  </si>
-  <si>
-    <t>C014-P1</t>
-  </si>
-  <si>
-    <t>C015-P1</t>
-  </si>
-  <si>
-    <t>C017-P1</t>
-  </si>
-  <si>
-    <t>C020-P1</t>
-  </si>
-  <si>
-    <t>C021-P1</t>
-  </si>
-  <si>
-    <t>C022-P1</t>
-  </si>
-  <si>
-    <t>C024-P1</t>
-  </si>
-  <si>
-    <t>C026-P1</t>
-  </si>
-  <si>
-    <t>C027-P1</t>
-  </si>
-  <si>
-    <t>C028-P1</t>
-  </si>
-  <si>
-    <t>C029-P1</t>
-  </si>
-  <si>
-    <t>C031-P1</t>
-  </si>
-  <si>
-    <t>C032-P1</t>
-  </si>
-  <si>
-    <t>C033-P1</t>
-  </si>
-  <si>
-    <t>C034-P1</t>
-  </si>
-  <si>
-    <t>C035-P1</t>
-  </si>
-  <si>
-    <t>C036-P1</t>
-  </si>
-  <si>
-    <t>C037-P1</t>
-  </si>
-  <si>
-    <t>C038-P1</t>
-  </si>
-  <si>
-    <t>C039-P1</t>
-  </si>
-  <si>
-    <t>C040-P1</t>
-  </si>
-  <si>
-    <t>C041-P1</t>
-  </si>
-  <si>
-    <t>C042-P1</t>
-  </si>
-  <si>
-    <t>C043-P1</t>
-  </si>
-  <si>
-    <t>C044-P1</t>
-  </si>
-  <si>
-    <t>C045-P1</t>
-  </si>
-  <si>
-    <t>C046-P1</t>
-  </si>
-  <si>
-    <t>C047-P1</t>
-  </si>
-  <si>
-    <t>C048-P1</t>
-  </si>
-  <si>
-    <t>C049-P1</t>
-  </si>
-  <si>
-    <t>C050-P1</t>
-  </si>
-  <si>
-    <t>C052-P1</t>
-  </si>
-  <si>
-    <t>C053-P1</t>
-  </si>
-  <si>
-    <t>C054-P1</t>
-  </si>
-  <si>
-    <t>C055-P1</t>
-  </si>
-  <si>
-    <t>C056-P1</t>
-  </si>
-  <si>
-    <t>C057-P1</t>
-  </si>
-  <si>
-    <t>C058-P1</t>
-  </si>
-  <si>
-    <t>C059-P1</t>
-  </si>
-  <si>
-    <t>C060-P1</t>
-  </si>
-  <si>
     <t>Olink_X4E.BP1</t>
   </si>
   <si>
@@ -1261,6 +1111,27 @@
   </si>
   <si>
     <t>C001-P51</t>
+  </si>
+  <si>
+    <t>day 1</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Class1</t>
+  </si>
+  <si>
+    <t>Class2</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1179,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1603,15 +1485,15 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B1" sqref="B1:AZ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1619,159 +1501,159 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="D1" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="E1" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="F1" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="G1" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="H1" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="I1" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="J1" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="K1" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="L1" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="M1" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="N1" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="O1" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="P1" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="Q1" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="R1" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="S1" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="T1" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="U1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="V1" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="W1" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="X1" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="Y1" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="Z1" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="AA1" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="AB1" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="AC1" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="AD1" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="AE1" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="AF1" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="AG1" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="AH1" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="AI1" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="AJ1" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="AK1" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="AL1" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="AM1" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="AN1" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AO1" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AP1" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="AQ1" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="AR1" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="AS1" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="AT1" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="AU1" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="AV1" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="AW1" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="AX1" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="AY1" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="AZ1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>9.0029699999999995</v>
@@ -1927,9 +1809,9 @@
         <v>9.7052200000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>3.1324299999999998</v>
@@ -2085,9 +1967,9 @@
         <v>2.6933699999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>2.5103399999999998</v>
@@ -2243,9 +2125,9 @@
         <v>5.4729799999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1.1003400000000001</v>
@@ -2401,9 +2283,9 @@
         <v>2.9085299999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>9.2497199999999999</v>
@@ -2559,9 +2441,9 @@
         <v>9.9930699999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>7.0370299999999997</v>
@@ -2717,9 +2599,9 @@
         <v>7.72593</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>4.4793599999999998</v>
@@ -2875,9 +2757,9 @@
         <v>5.6349600000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>7.1394599999999997</v>
@@ -3033,9 +2915,9 @@
         <v>7.1158599999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>6.2490899999999998</v>
@@ -3191,9 +3073,9 @@
         <v>5.2723699999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>2.5356299999999998</v>
@@ -3349,9 +3231,9 @@
         <v>5.0757000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0.30789</v>
@@ -3507,9 +3389,9 @@
         <v>0.51980999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1.35473</v>
@@ -3665,9 +3547,9 @@
         <v>2.4281100000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>4.8933400000000002</v>
@@ -3823,9 +3705,9 @@
         <v>5.9567300000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>3.9114900000000001</v>
@@ -3981,9 +3863,9 @@
         <v>6.8403600000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0.96780999999999995</v>
@@ -4139,9 +4021,9 @@
         <v>0.96716999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>3.7644000000000002</v>
@@ -4297,9 +4179,9 @@
         <v>4.2632000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>3.6119400000000002</v>
@@ -4455,9 +4337,9 @@
         <v>3.42076</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0.44888</v>
@@ -4613,9 +4495,9 @@
         <v>3.11774</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0.73673999999999995</v>
@@ -4771,9 +4653,9 @@
         <v>1.3571800000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>1.47359</v>
@@ -4929,9 +4811,9 @@
         <v>1.4005399999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>8.0899400000000004</v>
@@ -5087,9 +4969,9 @@
         <v>8.6149500000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>1.3704400000000001</v>
@@ -5245,9 +5127,9 @@
         <v>2.66499</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>5.2733999999999996</v>
@@ -5403,9 +5285,9 @@
         <v>5.0718699999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>7.97431</v>
@@ -5561,9 +5443,9 @@
         <v>8.6280300000000008</v>
       </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>3.8476300000000001</v>
@@ -5719,9 +5601,9 @@
         <v>4.2310800000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>7.3565500000000004</v>
@@ -5877,9 +5759,9 @@
         <v>6.8308299999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>8.0179299999999998</v>
@@ -6035,9 +5917,9 @@
         <v>10.26731</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>4.5666700000000002</v>
@@ -6193,9 +6075,9 @@
         <v>6.1011600000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>10.938929999999999</v>
@@ -6351,9 +6233,9 @@
         <v>12.50831</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>4.4901499999999999</v>
@@ -6509,9 +6391,9 @@
         <v>5.0451699999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>5.5438099999999997</v>
@@ -6667,9 +6549,9 @@
         <v>4.8040000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>1.54434</v>
@@ -6825,9 +6707,9 @@
         <v>1.1996</v>
       </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>6.6360950000000001</v>
@@ -6983,9 +6865,9 @@
         <v>8.3890550000000008</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>5.2065000000000001</v>
@@ -7141,9 +7023,9 @@
         <v>6.95885</v>
       </c>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>6.4214700000000002</v>
@@ -7299,9 +7181,9 @@
         <v>8.0708599999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>5.3646599999999998</v>
@@ -7457,9 +7339,9 @@
         <v>5.0781099999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>3.4816099999999999</v>
@@ -7615,9 +7497,9 @@
         <v>4.4651899999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>11.156599999999999</v>
@@ -7773,9 +7655,9 @@
         <v>12.24657</v>
       </c>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>2.1796500000000001</v>
@@ -7931,9 +7813,9 @@
         <v>2.51776</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>3.70608</v>
@@ -8089,9 +7971,9 @@
         <v>6.3949499999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>3.1550400000000001</v>
@@ -8247,9 +8129,9 @@
         <v>4.6255100000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>3.57226</v>
@@ -8405,9 +8287,9 @@
         <v>3.3559700000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>3.9784600000000001</v>
@@ -8563,9 +8445,9 @@
         <v>5.2633299999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>7.2792000000000003</v>
@@ -8721,9 +8603,9 @@
         <v>8.5327999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>1.554</v>
@@ -8879,9 +8761,9 @@
         <v>1.6813499999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>0.83718999999999999</v>
@@ -9037,9 +8919,9 @@
         <v>0.36623</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>5.7212699999999996</v>
@@ -9195,9 +9077,9 @@
         <v>5.0445000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>7.0803500000000001</v>
@@ -9353,9 +9235,9 @@
         <v>7.8483900000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>-0.88721000000000005</v>
@@ -9520,1315 +9402,1469 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
         <v>101</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D16" t="s">
         <v>102</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>103</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C17" t="s">
         <v>104</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D17" t="s">
         <v>105</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>106</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C18" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D18" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>109</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C19" t="s">
         <v>110</v>
       </c>
-      <c r="E2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D19" t="s">
         <v>111</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
         <v>112</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C20" t="s">
         <v>113</v>
       </c>
-      <c r="E3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D20" t="s">
         <v>114</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
         <v>115</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C21" t="s">
         <v>116</v>
       </c>
-      <c r="E4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D21" t="s">
         <v>117</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
         <v>118</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C22" t="s">
         <v>119</v>
       </c>
-      <c r="E5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D22" t="s">
         <v>120</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
         <v>121</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C23" t="s">
         <v>122</v>
       </c>
-      <c r="E6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D23" t="s">
         <v>123</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
         <v>124</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C24" t="s">
         <v>125</v>
       </c>
-      <c r="E7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D24" t="s">
         <v>126</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
         <v>127</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C25" t="s">
         <v>128</v>
       </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D25" t="s">
         <v>129</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
         <v>130</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C26" t="s">
         <v>131</v>
       </c>
-      <c r="E9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D26" t="s">
         <v>132</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
         <v>133</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C27" t="s">
         <v>134</v>
       </c>
-      <c r="E10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D27" t="s">
         <v>135</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
         <v>136</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C28" t="s">
         <v>137</v>
       </c>
-      <c r="E11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D28" t="s">
         <v>138</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
         <v>139</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C29" t="s">
         <v>140</v>
       </c>
-      <c r="E12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D29" t="s">
         <v>141</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
         <v>142</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C30" t="s">
         <v>143</v>
       </c>
-      <c r="E13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D30" t="s">
         <v>144</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
         <v>145</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C31" t="s">
         <v>146</v>
       </c>
-      <c r="E14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D31" t="s">
         <v>147</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
         <v>148</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C32" t="s">
         <v>149</v>
       </c>
-      <c r="E15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" t="s">
-        <v>148</v>
-      </c>
-      <c r="H15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D32" t="s">
         <v>150</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
         <v>151</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C33" t="s">
         <v>152</v>
       </c>
-      <c r="E16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D33" t="s">
         <v>153</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E33" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s">
+        <v>152</v>
+      </c>
+      <c r="I33" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
         <v>154</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C34" t="s">
         <v>155</v>
       </c>
-      <c r="E17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D34" t="s">
         <v>156</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" t="s">
+        <v>155</v>
+      </c>
+      <c r="I34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
         <v>157</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C35" t="s">
         <v>158</v>
       </c>
-      <c r="E18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D35" t="s">
         <v>159</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s">
+        <v>158</v>
+      </c>
+      <c r="I35" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
         <v>160</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C36" t="s">
         <v>161</v>
       </c>
-      <c r="E19" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D36" t="s">
         <v>162</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
         <v>163</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C37" t="s">
         <v>164</v>
       </c>
-      <c r="E20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D37" t="s">
         <v>165</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I37" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
         <v>166</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C38" t="s">
         <v>167</v>
       </c>
-      <c r="E21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" t="s">
-        <v>166</v>
-      </c>
-      <c r="H21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D38" t="s">
         <v>168</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s">
+        <v>167</v>
+      </c>
+      <c r="I38" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
         <v>169</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C39" t="s">
         <v>170</v>
       </c>
-      <c r="E22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D39" t="s">
         <v>171</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s">
+        <v>170</v>
+      </c>
+      <c r="I39" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
         <v>172</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C40" t="s">
         <v>173</v>
       </c>
-      <c r="E23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D40" t="s">
         <v>174</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E40" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
+        <v>173</v>
+      </c>
+      <c r="I40" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
         <v>175</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C41" t="s">
         <v>176</v>
       </c>
-      <c r="E24" t="s">
-        <v>175</v>
-      </c>
-      <c r="F24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D41" t="s">
         <v>177</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E41" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s">
+        <v>176</v>
+      </c>
+      <c r="I41" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
         <v>178</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C42" t="s">
         <v>179</v>
       </c>
-      <c r="E25" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" t="s">
-        <v>178</v>
-      </c>
-      <c r="H25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D42" t="s">
         <v>180</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E42" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s">
+        <v>179</v>
+      </c>
+      <c r="I42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
         <v>181</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C43" t="s">
         <v>182</v>
       </c>
-      <c r="E26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F26" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D43" t="s">
         <v>183</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E43" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" t="s">
+        <v>182</v>
+      </c>
+      <c r="I43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
         <v>184</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C44" t="s">
         <v>185</v>
       </c>
-      <c r="E27" t="s">
-        <v>184</v>
-      </c>
-      <c r="F27" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" t="s">
-        <v>184</v>
-      </c>
-      <c r="H27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="D44" t="s">
         <v>186</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E44" t="s">
+        <v>185</v>
+      </c>
+      <c r="F44" t="s">
+        <v>185</v>
+      </c>
+      <c r="G44" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s">
+        <v>185</v>
+      </c>
+      <c r="I44" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
         <v>187</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C45" t="s">
         <v>188</v>
       </c>
-      <c r="E28" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28" t="s">
-        <v>187</v>
-      </c>
-      <c r="G28" t="s">
-        <v>187</v>
-      </c>
-      <c r="H28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D45" t="s">
         <v>189</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E45" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>188</v>
+      </c>
+      <c r="I45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
         <v>190</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C46" t="s">
         <v>191</v>
       </c>
-      <c r="E29" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" t="s">
-        <v>190</v>
-      </c>
-      <c r="G29" t="s">
-        <v>190</v>
-      </c>
-      <c r="H29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D46" t="s">
         <v>192</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E46" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>191</v>
+      </c>
+      <c r="I46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
         <v>193</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C47" t="s">
         <v>194</v>
       </c>
-      <c r="E30" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" t="s">
-        <v>193</v>
-      </c>
-      <c r="G30" t="s">
-        <v>193</v>
-      </c>
-      <c r="H30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="D47" t="s">
         <v>195</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E47" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" t="s">
+        <v>194</v>
+      </c>
+      <c r="I47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
         <v>196</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C48" t="s">
         <v>197</v>
       </c>
-      <c r="E31" t="s">
-        <v>196</v>
-      </c>
-      <c r="F31" t="s">
-        <v>196</v>
-      </c>
-      <c r="G31" t="s">
-        <v>196</v>
-      </c>
-      <c r="H31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D48" t="s">
         <v>198</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E48" t="s">
+        <v>197</v>
+      </c>
+      <c r="F48" t="s">
+        <v>197</v>
+      </c>
+      <c r="G48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" t="s">
+        <v>197</v>
+      </c>
+      <c r="I48" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
         <v>199</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C49" t="s">
         <v>200</v>
       </c>
-      <c r="E32" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" t="s">
-        <v>199</v>
-      </c>
-      <c r="G32" t="s">
-        <v>199</v>
-      </c>
-      <c r="H32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D49" t="s">
         <v>201</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E49" t="s">
+        <v>200</v>
+      </c>
+      <c r="F49" t="s">
+        <v>200</v>
+      </c>
+      <c r="G49" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" t="s">
+        <v>200</v>
+      </c>
+      <c r="I49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
         <v>202</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C50" t="s">
         <v>203</v>
       </c>
-      <c r="E33" t="s">
-        <v>202</v>
-      </c>
-      <c r="F33" t="s">
-        <v>202</v>
-      </c>
-      <c r="G33" t="s">
-        <v>202</v>
-      </c>
-      <c r="H33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D50" t="s">
         <v>204</v>
       </c>
-      <c r="C34" t="s">
-        <v>205</v>
-      </c>
-      <c r="D34" t="s">
-        <v>206</v>
-      </c>
-      <c r="E34" t="s">
-        <v>205</v>
-      </c>
-      <c r="F34" t="s">
-        <v>205</v>
-      </c>
-      <c r="G34" t="s">
-        <v>205</v>
-      </c>
-      <c r="H34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35" t="s">
-        <v>208</v>
-      </c>
-      <c r="D35" t="s">
-        <v>209</v>
-      </c>
-      <c r="E35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F35" t="s">
-        <v>208</v>
-      </c>
-      <c r="G35" t="s">
-        <v>208</v>
-      </c>
-      <c r="H35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C36" t="s">
-        <v>211</v>
-      </c>
-      <c r="D36" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" t="s">
-        <v>211</v>
-      </c>
-      <c r="F36" t="s">
-        <v>211</v>
-      </c>
-      <c r="G36" t="s">
-        <v>211</v>
-      </c>
-      <c r="H36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" t="s">
-        <v>215</v>
-      </c>
-      <c r="E37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F37" t="s">
-        <v>214</v>
-      </c>
-      <c r="G37" t="s">
-        <v>214</v>
-      </c>
-      <c r="H37" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" t="s">
-        <v>216</v>
-      </c>
-      <c r="C38" t="s">
-        <v>217</v>
-      </c>
-      <c r="D38" t="s">
-        <v>218</v>
-      </c>
-      <c r="E38" t="s">
-        <v>217</v>
-      </c>
-      <c r="F38" t="s">
-        <v>217</v>
-      </c>
-      <c r="G38" t="s">
-        <v>217</v>
-      </c>
-      <c r="H38" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" t="s">
-        <v>219</v>
-      </c>
-      <c r="C39" t="s">
-        <v>220</v>
-      </c>
-      <c r="D39" t="s">
-        <v>221</v>
-      </c>
-      <c r="E39" t="s">
-        <v>220</v>
-      </c>
-      <c r="F39" t="s">
-        <v>220</v>
-      </c>
-      <c r="G39" t="s">
-        <v>220</v>
-      </c>
-      <c r="H39" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" t="s">
-        <v>223</v>
-      </c>
-      <c r="D40" t="s">
-        <v>224</v>
-      </c>
-      <c r="E40" t="s">
-        <v>223</v>
-      </c>
-      <c r="F40" t="s">
-        <v>223</v>
-      </c>
-      <c r="G40" t="s">
-        <v>223</v>
-      </c>
-      <c r="H40" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" t="s">
-        <v>225</v>
-      </c>
-      <c r="C41" t="s">
-        <v>226</v>
-      </c>
-      <c r="D41" t="s">
-        <v>227</v>
-      </c>
-      <c r="E41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F41" t="s">
-        <v>226</v>
-      </c>
-      <c r="G41" t="s">
-        <v>226</v>
-      </c>
-      <c r="H41" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" t="s">
-        <v>228</v>
-      </c>
-      <c r="C42" t="s">
-        <v>229</v>
-      </c>
-      <c r="D42" t="s">
-        <v>230</v>
-      </c>
-      <c r="E42" t="s">
-        <v>229</v>
-      </c>
-      <c r="F42" t="s">
-        <v>229</v>
-      </c>
-      <c r="G42" t="s">
-        <v>229</v>
-      </c>
-      <c r="H42" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" t="s">
-        <v>232</v>
-      </c>
-      <c r="D43" t="s">
-        <v>233</v>
-      </c>
-      <c r="E43" t="s">
-        <v>232</v>
-      </c>
-      <c r="F43" t="s">
-        <v>232</v>
-      </c>
-      <c r="G43" t="s">
-        <v>232</v>
-      </c>
-      <c r="H43" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" t="s">
-        <v>234</v>
-      </c>
-      <c r="C44" t="s">
-        <v>235</v>
-      </c>
-      <c r="D44" t="s">
-        <v>236</v>
-      </c>
-      <c r="E44" t="s">
-        <v>235</v>
-      </c>
-      <c r="F44" t="s">
-        <v>235</v>
-      </c>
-      <c r="G44" t="s">
-        <v>235</v>
-      </c>
-      <c r="H44" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s">
-        <v>237</v>
-      </c>
-      <c r="C45" t="s">
-        <v>238</v>
-      </c>
-      <c r="D45" t="s">
-        <v>239</v>
-      </c>
-      <c r="E45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G45" t="s">
-        <v>238</v>
-      </c>
-      <c r="H45" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" t="s">
-        <v>240</v>
-      </c>
-      <c r="C46" t="s">
-        <v>241</v>
-      </c>
-      <c r="D46" t="s">
-        <v>242</v>
-      </c>
-      <c r="E46" t="s">
-        <v>241</v>
-      </c>
-      <c r="F46" t="s">
-        <v>241</v>
-      </c>
-      <c r="G46" t="s">
-        <v>241</v>
-      </c>
-      <c r="H46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" t="s">
-        <v>243</v>
-      </c>
-      <c r="C47" t="s">
-        <v>244</v>
-      </c>
-      <c r="D47" t="s">
-        <v>245</v>
-      </c>
-      <c r="E47" t="s">
-        <v>244</v>
-      </c>
-      <c r="F47" t="s">
-        <v>244</v>
-      </c>
-      <c r="G47" t="s">
-        <v>244</v>
-      </c>
-      <c r="H47" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" t="s">
-        <v>246</v>
-      </c>
-      <c r="C48" t="s">
-        <v>247</v>
-      </c>
-      <c r="D48" t="s">
-        <v>248</v>
-      </c>
-      <c r="E48" t="s">
-        <v>247</v>
-      </c>
-      <c r="F48" t="s">
-        <v>247</v>
-      </c>
-      <c r="G48" t="s">
-        <v>247</v>
-      </c>
-      <c r="H48" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>249</v>
-      </c>
-      <c r="C49" t="s">
-        <v>250</v>
-      </c>
-      <c r="D49" t="s">
-        <v>251</v>
-      </c>
-      <c r="E49" t="s">
-        <v>250</v>
-      </c>
-      <c r="F49" t="s">
-        <v>250</v>
-      </c>
-      <c r="G49" t="s">
-        <v>250</v>
-      </c>
-      <c r="H49" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" t="s">
-        <v>252</v>
-      </c>
-      <c r="C50" t="s">
-        <v>253</v>
-      </c>
-      <c r="D50" t="s">
-        <v>254</v>
-      </c>
       <c r="E50" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="F50" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="G50" t="s">
-        <v>253</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s">
-        <v>253</v>
+        <v>203</v>
+      </c>
+      <c r="I50" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -10836,95 +10872,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="F1" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="G1" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="H1" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="I1" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="J1" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="K1" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="L1" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="M1" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="N1" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="O1" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="P1" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="Q1" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="R1" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="S1" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="T1" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="U1" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="V1" t="s">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="W1" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="X1" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="Y1" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="Z1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10932,55 +10971,55 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G2" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H2" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I2" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J2" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K2" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L2" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="M2">
         <v>25.950000762939499</v>
       </c>
       <c r="N2" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="O2" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="W2" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X2" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y2" t="s">
         <v>1</v>
@@ -10988,258 +11027,273 @@
       <c r="Z2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G3" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H3" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I3" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L3" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="M3">
         <v>30.5</v>
       </c>
       <c r="N3" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="W3" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X3" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y3" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="Z3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="C4" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E4" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G4" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H4" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I4" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L4" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="M4">
         <v>30.809999465942401</v>
       </c>
       <c r="N4" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="W4" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X4" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y4" t="s">
-        <v>3</v>
+        <v>314</v>
       </c>
       <c r="Z4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G5" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H5" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I5" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L5" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="M5">
         <v>30.100000381469702</v>
       </c>
       <c r="N5" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="W5" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X5" t="s">
-        <v>288</v>
+        <v>363</v>
       </c>
       <c r="Y5" t="s">
-        <v>4</v>
+        <v>315</v>
       </c>
       <c r="Z5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E6" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F6" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G6" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H6" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I6" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J6" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K6" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L6" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="M6">
         <v>27.340000152587901</v>
       </c>
       <c r="N6" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="O6" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="U6">
         <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="W6" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X6" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y6" t="s">
-        <v>5</v>
+        <v>316</v>
       </c>
       <c r="Z6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E7" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F7" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G7" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H7" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I7" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J7" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K7" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L7" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="M7">
         <v>24.219999313354499</v>
@@ -11248,2689 +11302,2827 @@
         <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="W7" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X7" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y7" t="s">
-        <v>6</v>
+        <v>317</v>
       </c>
       <c r="Z7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F8" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H8" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I8" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J8" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K8" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L8" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="M8">
         <v>36.900001525878899</v>
       </c>
       <c r="N8" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="O8" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="U8">
         <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="W8" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X8" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y8" t="s">
-        <v>7</v>
+        <v>318</v>
       </c>
       <c r="Z8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F9" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G9" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H9" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I9" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J9" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K9" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L9" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="M9">
         <v>31.25</v>
       </c>
       <c r="N9" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="U9">
         <v>1</v>
       </c>
       <c r="V9" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="W9" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X9" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y9" t="s">
-        <v>8</v>
+        <v>319</v>
       </c>
       <c r="Z9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F10" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G10" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H10" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I10" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="J10" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K10" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L10" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M10">
         <v>27.549999237060501</v>
       </c>
       <c r="N10" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="O10" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="P10" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="Q10" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="U10">
         <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="W10" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X10" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y10" t="s">
-        <v>9</v>
+        <v>320</v>
       </c>
       <c r="Z10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="B11" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="C11" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F11" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G11" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H11" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I11" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J11" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K11" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L11" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="M11">
         <v>27.5100002288818</v>
       </c>
       <c r="N11" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="U11">
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="W11" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X11" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y11" t="s">
-        <v>10</v>
+        <v>321</v>
       </c>
       <c r="Z11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="B12" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="C12" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E12" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F12" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G12" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H12" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I12" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L12" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="M12">
         <v>25.709999084472699</v>
       </c>
       <c r="N12" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="W12" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X12" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y12" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="Z12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="B13" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="C13" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D13" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E13" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F13" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G13" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H13" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I13" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="J13" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K13" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L13" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="M13">
         <v>24.219999313354499</v>
       </c>
       <c r="N13" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="P13" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="Q13" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="U13">
         <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="W13" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X13" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y13" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="Z13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E14" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F14" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G14" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H14" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I14" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L14" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="M14">
         <v>28.649999618530298</v>
       </c>
       <c r="N14" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="W14" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X14" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y14" t="s">
-        <v>13</v>
+        <v>324</v>
       </c>
       <c r="Z14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="B15" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="C15" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D15" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F15" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="G15" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H15" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="I15" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L15" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="M15">
         <v>27.440000534057599</v>
       </c>
       <c r="N15" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="W15" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X15" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y15" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
       <c r="Z15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="C16" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D16" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E16" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F16" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G16" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H16" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I16" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J16" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K16" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L16" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="M16">
         <v>25.700000762939499</v>
       </c>
       <c r="N16" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="O16" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="U16">
         <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="W16" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X16" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y16" t="s">
-        <v>15</v>
+        <v>326</v>
       </c>
       <c r="Z16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="C17" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D17" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E17" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F17" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G17" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H17" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I17" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J17" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K17" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L17" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="M17">
         <v>26.670000076293899</v>
       </c>
       <c r="N17" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="O17" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="U17">
         <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="W17" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X17" t="s">
-        <v>288</v>
+        <v>363</v>
       </c>
       <c r="Y17" t="s">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="Z17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="C18" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D18" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E18" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F18" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G18" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H18" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I18" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J18" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K18" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L18" t="s">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="M18">
         <v>26.899999618530298</v>
       </c>
       <c r="N18" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="O18" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="U18">
         <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="W18" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X18" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y18" t="s">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="Z18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="B19" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="C19" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E19" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F19" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G19" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H19" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I19" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L19" t="s">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="M19">
         <v>25.950000762939499</v>
       </c>
       <c r="N19" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="O19" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="W19" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X19" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y19" t="s">
-        <v>18</v>
+        <v>329</v>
       </c>
       <c r="Z19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="B20" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="C20" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E20" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F20" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="G20" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="H20" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I20" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J20" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K20" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L20" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="M20">
         <v>23.659999847412099</v>
       </c>
       <c r="N20" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="U20">
         <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="W20" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X20" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y20" t="s">
-        <v>19</v>
+        <v>330</v>
       </c>
       <c r="Z20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="C21" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E21" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F21" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G21" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H21" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I21" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="M21">
         <v>24.219999313354499</v>
       </c>
       <c r="N21" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="W21" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X21" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y21" t="s">
-        <v>20</v>
+        <v>331</v>
       </c>
       <c r="Z21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="B22" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E22" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G22" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H22" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I22" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J22" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K22" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="M22">
         <v>28.370000839233398</v>
       </c>
       <c r="N22" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="U22">
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="W22" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X22" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y22" t="s">
-        <v>21</v>
+        <v>332</v>
       </c>
       <c r="Z22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="B23" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="C23" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D23" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E23" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F23" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G23" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H23" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I23" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="M23">
         <v>24.440000534057599</v>
       </c>
       <c r="N23" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="W23" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X23" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y23" t="s">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="Z23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="B24" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="C24" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D24" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E24" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F24" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G24" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="H24" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I24" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="M24">
         <v>32.7299995422363</v>
       </c>
       <c r="N24" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="U24">
         <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="W24" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X24" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y24" t="s">
-        <v>23</v>
+        <v>334</v>
       </c>
       <c r="Z24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="B25" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="C25" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E25" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F25" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G25" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H25" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I25" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="M25">
         <v>25.940000534057599</v>
       </c>
       <c r="N25" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="O25" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="W25" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X25" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y25" t="s">
-        <v>24</v>
+        <v>335</v>
       </c>
       <c r="Z25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="B26" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="C26" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D26" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E26" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F26" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="G26" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H26" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I26" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="J26" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K26" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="M26">
         <v>24.7700004577637</v>
       </c>
       <c r="N26" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="P26" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="Q26" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="U26">
         <v>1</v>
       </c>
       <c r="V26" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="W26" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X26" t="s">
-        <v>288</v>
+        <v>363</v>
       </c>
       <c r="Y26" t="s">
-        <v>25</v>
+        <v>336</v>
       </c>
       <c r="Z26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="B27" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="C27" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D27" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E27" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F27" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H27" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I27" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="M27">
         <v>34.569999694824197</v>
       </c>
       <c r="N27" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="W27" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X27" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y27" t="s">
-        <v>26</v>
+        <v>337</v>
       </c>
       <c r="Z27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="B28" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="C28" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D28" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E28" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F28" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G28" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H28" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I28" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="M28">
         <v>41.909999847412102</v>
       </c>
       <c r="N28" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="W28" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X28" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y28" t="s">
-        <v>27</v>
+        <v>338</v>
       </c>
       <c r="Z28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="B29" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="C29" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D29" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E29" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F29" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H29" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I29" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="M29">
         <v>28.340000152587901</v>
       </c>
       <c r="N29" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="W29" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X29" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y29" t="s">
-        <v>28</v>
+        <v>339</v>
       </c>
       <c r="Z29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="B30" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="C30" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D30" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E30" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F30" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G30" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H30" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I30" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="M30">
         <v>24.219999313354499</v>
       </c>
       <c r="N30" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="W30" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X30" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y30" t="s">
-        <v>29</v>
+        <v>340</v>
       </c>
       <c r="Z30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="B31" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="C31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" t="s">
+        <v>242</v>
+      </c>
+      <c r="F31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" t="s">
+        <v>232</v>
+      </c>
+      <c r="H31" t="s">
+        <v>232</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s">
         <v>281</v>
-      </c>
-      <c r="D31" t="s">
-        <v>292</v>
-      </c>
-      <c r="E31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F31" t="s">
-        <v>282</v>
-      </c>
-      <c r="G31" t="s">
-        <v>282</v>
-      </c>
-      <c r="H31" t="s">
-        <v>282</v>
-      </c>
-      <c r="I31" t="s">
-        <v>282</v>
-      </c>
-      <c r="L31" t="s">
-        <v>331</v>
       </c>
       <c r="M31">
         <v>25.100000381469702</v>
       </c>
       <c r="N31" t="s">
+        <v>232</v>
+      </c>
+      <c r="W31" t="s">
+        <v>238</v>
+      </c>
+      <c r="X31" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>342</v>
+      </c>
+      <c r="B32" t="s">
+        <v>342</v>
+      </c>
+      <c r="C32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" t="s">
+        <v>242</v>
+      </c>
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>232</v>
+      </c>
+      <c r="H32" t="s">
+        <v>232</v>
+      </c>
+      <c r="I32" t="s">
+        <v>232</v>
+      </c>
+      <c r="J32" t="s">
+        <v>233</v>
+      </c>
+      <c r="K32" t="s">
+        <v>234</v>
+      </c>
+      <c r="L32" t="s">
         <v>282</v>
-      </c>
-      <c r="W31" t="s">
-        <v>288</v>
-      </c>
-      <c r="X31" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>392</v>
-      </c>
-      <c r="B32" t="s">
-        <v>392</v>
-      </c>
-      <c r="C32" t="s">
-        <v>281</v>
-      </c>
-      <c r="D32" t="s">
-        <v>282</v>
-      </c>
-      <c r="E32" t="s">
-        <v>292</v>
-      </c>
-      <c r="F32" t="s">
-        <v>282</v>
-      </c>
-      <c r="G32" t="s">
-        <v>282</v>
-      </c>
-      <c r="H32" t="s">
-        <v>282</v>
-      </c>
-      <c r="I32" t="s">
-        <v>282</v>
-      </c>
-      <c r="J32" t="s">
-        <v>283</v>
-      </c>
-      <c r="K32" t="s">
-        <v>284</v>
-      </c>
-      <c r="L32" t="s">
-        <v>332</v>
       </c>
       <c r="M32">
         <v>37</v>
       </c>
       <c r="N32" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="O32" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="U32">
         <v>1</v>
       </c>
       <c r="V32" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="W32" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X32" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y32" t="s">
-        <v>31</v>
+        <v>342</v>
       </c>
       <c r="Z32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="B33" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="C33" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D33" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E33" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F33" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G33" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H33" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K33" t="s">
+        <v>234</v>
+      </c>
+      <c r="L33" t="s">
         <v>284</v>
-      </c>
-      <c r="L33" t="s">
-        <v>334</v>
       </c>
       <c r="M33">
         <v>24.170000076293899</v>
       </c>
       <c r="N33" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="O33" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="U33">
         <v>1</v>
       </c>
       <c r="V33" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="W33" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X33" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y33" t="s">
-        <v>32</v>
+        <v>343</v>
       </c>
       <c r="Z33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="B34" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="C34" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D34" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E34" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F34" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G34" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H34" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I34" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="M34">
         <v>24.4899997711182</v>
       </c>
       <c r="N34" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="W34" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X34" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y34" t="s">
-        <v>33</v>
+        <v>344</v>
       </c>
       <c r="Z34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="B35" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="C35" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D35" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E35" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F35" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G35" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H35" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I35" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L35" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="M35">
         <v>26.120000839233398</v>
       </c>
       <c r="N35" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="W35" t="s">
+        <v>238</v>
+      </c>
+      <c r="X35" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>346</v>
+      </c>
+      <c r="B36" t="s">
+        <v>346</v>
+      </c>
+      <c r="C36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" t="s">
+        <v>232</v>
+      </c>
+      <c r="H36" t="s">
+        <v>232</v>
+      </c>
+      <c r="I36" t="s">
+        <v>232</v>
+      </c>
+      <c r="L36" t="s">
         <v>288</v>
-      </c>
-      <c r="X35" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>396</v>
-      </c>
-      <c r="B36" t="s">
-        <v>396</v>
-      </c>
-      <c r="C36" t="s">
-        <v>281</v>
-      </c>
-      <c r="D36" t="s">
-        <v>292</v>
-      </c>
-      <c r="E36" t="s">
-        <v>282</v>
-      </c>
-      <c r="F36" t="s">
-        <v>282</v>
-      </c>
-      <c r="G36" t="s">
-        <v>282</v>
-      </c>
-      <c r="H36" t="s">
-        <v>282</v>
-      </c>
-      <c r="I36" t="s">
-        <v>282</v>
-      </c>
-      <c r="L36" t="s">
-        <v>338</v>
       </c>
       <c r="M36">
         <v>25.899999618530298</v>
       </c>
       <c r="N36" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="W36" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X36" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y36" t="s">
-        <v>35</v>
+        <v>346</v>
       </c>
       <c r="Z36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="C37" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D37" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E37" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F37" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G37" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H37" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K37" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L37" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
       <c r="M37">
         <v>24.219999313354499</v>
       </c>
       <c r="N37" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="U37">
         <v>1</v>
       </c>
       <c r="V37" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="W37" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X37" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y37" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="Z37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="C38" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D38" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E38" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F38" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G38" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H38" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I38" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J38" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K38" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="M38">
         <v>35.759998321533203</v>
       </c>
       <c r="N38" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="U38">
         <v>1</v>
       </c>
       <c r="V38" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="W38" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X38" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y38" t="s">
-        <v>37</v>
+        <v>348</v>
       </c>
       <c r="Z38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="B39" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="C39" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D39" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E39" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F39" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G39" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H39" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I39" t="s">
+        <v>242</v>
+      </c>
+      <c r="J39" t="s">
+        <v>233</v>
+      </c>
+      <c r="K39" t="s">
+        <v>234</v>
+      </c>
+      <c r="L39" t="s">
         <v>292</v>
-      </c>
-      <c r="J39" t="s">
-        <v>283</v>
-      </c>
-      <c r="K39" t="s">
-        <v>284</v>
-      </c>
-      <c r="L39" t="s">
-        <v>342</v>
       </c>
       <c r="M39">
         <v>27.340000152587901</v>
       </c>
       <c r="N39" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="O39" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="P39" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="Q39" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="U39">
         <v>1</v>
       </c>
       <c r="V39" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="W39" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X39" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y39" t="s">
-        <v>38</v>
+        <v>349</v>
       </c>
       <c r="Z39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="C40" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D40" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E40" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F40" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G40" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="H40" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I40" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J40" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K40" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L40" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="M40">
         <v>27.5100002288818</v>
       </c>
       <c r="N40" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="U40">
         <v>1</v>
       </c>
       <c r="V40" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="W40" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X40" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y40" t="s">
-        <v>39</v>
+        <v>350</v>
       </c>
       <c r="Z40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="C41" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D41" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F41" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G41" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H41" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I41" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J41" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K41" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L41" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="M41">
         <v>27.920000076293899</v>
       </c>
       <c r="N41" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="U41">
         <v>1</v>
       </c>
       <c r="V41" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="W41" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X41" t="s">
-        <v>288</v>
+        <v>363</v>
       </c>
       <c r="Y41" t="s">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="Z41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="C42" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D42" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E42" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F42" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G42" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H42" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I42" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L42" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="M42">
         <v>33.950000762939503</v>
       </c>
       <c r="N42" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="W42" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X42" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y42" t="s">
-        <v>41</v>
+        <v>352</v>
       </c>
       <c r="Z42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="B43" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="C43" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D43" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E43" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G43" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="H43" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I43" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J43" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K43" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L43" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="M43">
         <v>36.060001373291001</v>
       </c>
       <c r="N43" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="O43" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="U43">
         <v>1</v>
       </c>
       <c r="V43" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="W43" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X43" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y43" t="s">
-        <v>42</v>
+        <v>353</v>
       </c>
       <c r="Z43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="B44" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="C44" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D44" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E44" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F44" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G44" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H44" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I44" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J44" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K44" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L44" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="M44">
         <v>30.799999237060501</v>
       </c>
       <c r="N44" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="U44">
         <v>1</v>
       </c>
       <c r="V44" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="W44" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X44" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y44" t="s">
-        <v>43</v>
+        <v>354</v>
       </c>
       <c r="Z44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="C45" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D45" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F45" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G45" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H45" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I45" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J45" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K45" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L45" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="M45">
         <v>24.690000534057599</v>
       </c>
       <c r="N45" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="U45">
         <v>1</v>
       </c>
       <c r="V45" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="W45" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X45" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y45" t="s">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="Z45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="C46" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D46" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E46" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F46" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G46" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H46" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I46" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J46" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K46" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L46" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="M46">
         <v>29.7299995422363</v>
       </c>
       <c r="N46" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="U46">
         <v>1</v>
       </c>
       <c r="V46" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="W46" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X46" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y46" t="s">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="Z46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="C47" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D47" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E47" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F47" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="G47" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="H47" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I47" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J47" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K47" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L47" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="M47">
         <v>31.25</v>
       </c>
       <c r="N47" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="U47">
         <v>1</v>
       </c>
       <c r="V47" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="W47" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X47" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y47" t="s">
-        <v>46</v>
+        <v>357</v>
       </c>
       <c r="Z47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="C48" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D48" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E48" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="F48" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G48" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H48" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I48" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J48" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K48" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L48" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="M48">
         <v>24.090000152587901</v>
       </c>
       <c r="N48" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="U48">
         <v>1</v>
       </c>
       <c r="V48" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="W48" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X48" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y48" t="s">
-        <v>47</v>
+        <v>358</v>
       </c>
       <c r="Z48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="C49" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D49" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="E49" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F49" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G49" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H49" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I49" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="J49" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K49" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L49" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="M49">
         <v>35.560001373291001</v>
       </c>
       <c r="N49" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="P49" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="Q49" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="U49">
         <v>1</v>
       </c>
       <c r="V49" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="W49" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X49" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y49" t="s">
-        <v>48</v>
+        <v>359</v>
       </c>
       <c r="Z49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="C50" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D50" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E50" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F50" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G50" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H50" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I50" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J50" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K50" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L50" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="M50">
         <v>28.399999618530298</v>
       </c>
       <c r="N50" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="U50">
         <v>1</v>
       </c>
       <c r="V50" t="s">
+        <v>310</v>
+      </c>
+      <c r="W50" t="s">
+        <v>238</v>
+      </c>
+      <c r="X50" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y50" t="s">
         <v>360</v>
       </c>
-      <c r="W50" t="s">
-        <v>288</v>
-      </c>
-      <c r="X50" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>49</v>
-      </c>
       <c r="Z50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="B51" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="C51" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D51" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E51" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F51" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G51" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H51" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I51" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J51" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K51" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L51" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="M51">
         <v>27.059999465942401</v>
       </c>
       <c r="N51" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="U51">
         <v>1</v>
       </c>
       <c r="V51" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="W51" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X51" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y51" t="s">
-        <v>50</v>
+        <v>361</v>
       </c>
       <c r="Z51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="C52" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="D52" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="E52" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F52" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="G52" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H52" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="I52" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="J52" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="K52" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="L52" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="M52">
         <v>25.909999847412099</v>
       </c>
       <c r="N52" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="O52" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="U52">
         <v>1</v>
       </c>
       <c r="V52" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="W52" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="X52" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y52" t="s">
-        <v>51</v>
+        <v>362</v>
       </c>
       <c r="Z52" t="s">
-        <v>51</v>
+        <v>362</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -14111,18 +14303,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14145,14 +14337,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CD86840-EB3B-4C9A-B0DB-53A9056FFCC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F79D19-8193-4181-8E5C-C0DC578FDD1A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -14167,4 +14351,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CD86840-EB3B-4C9A-B0DB-53A9056FFCC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>